--- a/data source/各大學人數.xlsx
+++ b/data source/各大學人數.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39B2388-2C5A-4A63-97E9-8ABFA2FFCCB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F9F18-0403-4881-8D06-381416801196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="1" xr2:uid="{CAFB0F4F-3521-400E-B7CA-C77E5495C242}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{CAFB0F4F-3521-400E-B7CA-C77E5495C242}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
               <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0">
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:rPr>
-              <a:t>年度大專院校</a:t>
+              <a:t>年度台北大專院校人數</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" sz="1600" baseline="0">
               <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
@@ -884,8 +884,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.2506671041119856E-2"/>
-                  <c:y val="6.0962379702537185E-2"/>
+                  <c:x val="0.15084011373578302"/>
+                  <c:y val="0.15818460192475942"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -937,6 +937,20 @@
                       <a:pPr/>
                       <a:t>[值]</a:t>
                     </a:fld>
+                    <a:r>
+                      <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>人</a:t>
+                    </a:r>
                     <a:r>
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
@@ -1059,6 +1073,20 @@
                       <a:pPr/>
                       <a:t>[值]</a:t>
                     </a:fld>
+                    <a:r>
+                      <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>人</a:t>
+                    </a:r>
                     <a:r>
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
@@ -3353,15 +3381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>231320</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>27223</xdr:rowOff>
+      <xdr:colOff>331106</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>548820</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>157851</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>40820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>203209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3729,9 +3757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A00D6D-F94B-42C9-AD85-951235E1F716}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4568,7 +4596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B0EA75-6F44-48A1-9C12-4D1F3CDEEA4B}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
